--- a/biology/Botanique/Osterley_Park/Osterley_Park.xlsx
+++ b/biology/Botanique/Osterley_Park/Osterley_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Osterley Park est un vaste parc londonien, situé à Osterley, division du borough londonien de Hounslow. Il couvre une superficie totale de 209 hectares, ce qui en fait l'un des plus grands espaces verts de Londres.
-Il appartenait originellement au banquier Thomas Gresham[1]. Il y établit un moulin pour la papeterie et des cultures de chanvre.
-Un musée est situé dans une grande maison construite par Robert Adam et John Adam,  notamment connue pour une salle décorée à la manière étrusque[2]. Cette maison fut longtemps la propriété des comtes de Jersey qui l'ont vendue à la nation en 1949. Depuis 1991, elle est la propriété du National Trust.
+Il appartenait originellement au banquier Thomas Gresham. Il y établit un moulin pour la papeterie et des cultures de chanvre.
+Un musée est situé dans une grande maison construite par Robert Adam et John Adam,  notamment connue pour une salle décorée à la manière étrusque. Cette maison fut longtemps la propriété des comtes de Jersey qui l'ont vendue à la nation en 1949. Depuis 1991, elle est la propriété du National Trust.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Osterley est un parc paysager du XVIIIè siècle. Le site est dominé par 3 pièces d'eau : le Garden Lake (près de 2 hectares), le Middle Lake (5.5 hectares), et le North Lake (environ 3 hectares). À son développement maximal il occupait près de 560 hectares, comprenant un parc paysager, des lacs, des terres boisées et des terres cultivées, avec une zone centrale de 56 hectares formant des terrains, prés et jardins.
 La Maison et les jardins sont ouverts au public et reçoivent environ 35 000 visiteurs par an, le parc lui près de 350 000.
